--- a/data/trans_dic/P23_10_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_10_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida</t>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,17%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>7,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 26,69</t>
+          <t>3,05; 13,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 13,77</t>
+          <t>4,44; 11,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 9,65</t>
+          <t>3,94; 9,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,17; 16,24</t>
+          <t>3,43; 13,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 12,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 9,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,18</t>
+          <t>2,54; 11,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,86; 20,59</t>
+          <t>4,19; 10,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 16,75</t>
+          <t>2,94; 7,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 10,14</t>
+          <t>8,65; 19,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 7,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 16,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 10,39</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 9,41</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 7,99</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 15,7</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>9,34%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,63%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 11,84</t>
+          <t>6,51; 15,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,12; 11,32</t>
+          <t>5,51; 14,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,97</t>
+          <t>5,69; 9,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 11,12</t>
+          <t>3,61; 9,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 11,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,33</t>
+          <t>6,08; 13,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,56; 10,22</t>
+          <t>3,17; 6,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,55; 10,58</t>
+          <t>3,67; 7,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,73; 8,18</t>
+          <t>4,17; 10,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 12,6</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>4,89; 9,41</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>5,11; 7,83</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>4,59; 8,54</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>7,26%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>5,31%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,95</t>
+          <t>2,91; 8,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,28</t>
+          <t>2,5; 6,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 8,1</t>
+          <t>3,86; 8,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 10,16</t>
+          <t>4,07; 15,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 8,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,55; 6,14</t>
+          <t>3,45; 8,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 8,04</t>
+          <t>1,41; 4,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,86</t>
+          <t>2,62; 6,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,17</t>
+          <t>3,17; 8,14</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 6,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,83</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,68; 7,51</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>2,27; 4,72</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 6,32</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 10,13</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,73%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 11,13</t>
+          <t>4,14; 8,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,1; 8,68</t>
+          <t>3,55; 9,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 10,95</t>
+          <t>2,94; 8,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,72; 5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 5,87</t>
+          <t>5,74; 10,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 11,86</t>
+          <t>3,42; 8,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,44; 9,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,67</t>
+          <t>3,69; 8,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 6,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,98; 10,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,25; 8,66</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 8,02</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>3,81; 7,48</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,67%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,64%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 8,62</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,1; 8,84</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5,47; 8,2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 8,31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,04; 9,23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 5,83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 5,88</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 9,04</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 8,32</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 6,91</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 6,59</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 8,09</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos consejos útiles de los que desea cuando le ocurre algún acontecimiento importante en su vida (tasa de respuesta: 99,17%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21766</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>37064</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46868</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32077</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>24523</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>39816</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43926</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>82785</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>46289</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>76880</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>90794</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>114862</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9721; 42379</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22643; 56723</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28211; 70540</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15135; 60681</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10347; 46228</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25237; 62750</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25568; 65029</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>52473; 120231</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>26676; 75381</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>55883; 104574</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>65868; 126649</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>80588; 164548</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>87083</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>101719</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>120748</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>63061</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>91189</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>57915</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>75753</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>70872</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>178272</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>196501</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>133933</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>60091; 143455</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>65544; 168199</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>91042; 159118</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>37869; 97590</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>59896; 134980</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>38657; 82704</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>54457; 106491</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>44419; 107215</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>128825; 240486</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>117789; 226517</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>157391; 241466</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>97051; 180461</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35631</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>35074</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>60504</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>60049</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>42722</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24688</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>46122</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>47482</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>78354</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>59762</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>106626</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>107532</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>20686; 59077</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21072; 55666</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41943; 87747</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33676; 132104</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>26309; 65108</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13258; 41186</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30390; 71127</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>28351; 72828</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>54254; 110744</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>40527; 84203</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>79354; 142150</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>73719; 174330</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>84094</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>50924</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>53503</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>103268</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>40905</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>55703</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>187362</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>91829</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>109206</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>57858; 123207</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29831; 82202</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>31273; 86733</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>77850; 142060</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>25184; 66224</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>35627; 85397</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>144580; 238494</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>62424; 126596</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>77419; 151891</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>228574</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>224781</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>228120</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>208690</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>261703</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>163325</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>165801</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>256843</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>490276</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>388106</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>393921</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>465533</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>176670; 288960</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>172640; 299243</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>186303; 279119</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>158790; 280947</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>212017; 323943</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>131298; 203696</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>133474; 206699</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>206743; 319148</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>412542; 570931</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>326202; 475097</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>339975; 455626</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>392608; 558947</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
